--- a/study_guides/midterm_1_review/tophat_vliw_scheduling_with_reordering_answer.xlsx
+++ b/study_guides/midterm_1_review/tophat_vliw_scheduling_with_reordering_answer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrabb\Desktop\Wonsun Ahn\cs1541\CS1541_Fall2020\study_guides\midterm_1_review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahn/Documents/teaching/cs1541/CS1541_Spring2022/study_guides/midterm_1_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8AE4C8-FF85-4587-9E44-E7333FFE38FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393891E7-CE57-0741-B809-5BCAFAA160AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="405" windowWidth="19650" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="460" windowWidth="32120" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>Cycle</t>
   </si>
@@ -78,7 +78,13 @@
     <t>addi t2, t1, 4</t>
   </si>
   <si>
-    <t>* Can be simulated using the 2-wide-opt.conf and tophat_vliw_scheduling_with_reordering.tr trace.  The result is going be for an in-order superscalar but the only difference for a VLIW is that instead of the hazard detection unit inserting bubbles, the compiler schedules instructions so that there are no hazards.</t>
+    <t xml:space="preserve">First, start by reordering the instructions to put distance between the use-after-load dependency.  Then run the new instruction stream by "./five_stage_solution -c confs/2-wide-opt.conf -t tophat_vliw_scheduling_with_reordering.tr" , where tophat_vliw_scheduling_with_reordering.tr is the trace file after reordering.  Write the generated schedule below. </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>The above result is  for an in-order superscalar but the only difference for a VLIW is that instead of the hazard detection unit inserting bubbles, the compiler schedules instructions so that there are no hazards.  Now write the compiler schedule based on the above schedule:</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,14 +160,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,19 +458,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:Z10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="26" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="26" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -485,7 +500,7 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -515,327 +530,293 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="7">
         <v>6</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>8</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="7">
         <v>10</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="7">
         <v>11</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="7">
         <v>12</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="7">
         <v>13</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="7">
         <v>14</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="7">
         <v>15</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="7">
         <v>16</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="7">
         <v>17</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="7">
         <v>18</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="7">
         <v>19</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="7">
         <v>20</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="7">
         <v>21</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="7">
         <v>22</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="7">
         <v>23</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="7">
         <v>24</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -863,223 +844,807 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="M12" s="2">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>14</v>
+      </c>
+      <c r="P12" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>16</v>
+      </c>
+      <c r="R12" s="2">
+        <v>17</v>
+      </c>
+      <c r="S12" s="2">
+        <v>18</v>
+      </c>
+      <c r="T12" s="2">
+        <v>19</v>
+      </c>
+      <c r="U12" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" s="2">
+        <v>21</v>
+      </c>
+      <c r="W12" s="2">
+        <v>22</v>
+      </c>
+      <c r="X12" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="7">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="H20" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="I20" s="7">
         <v>8</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="J20" s="7">
+        <v>9</v>
+      </c>
+      <c r="K20" s="7">
+        <v>10</v>
+      </c>
+      <c r="L20" s="7">
+        <v>11</v>
+      </c>
+      <c r="M20" s="7">
+        <v>12</v>
+      </c>
+      <c r="N20" s="7">
+        <v>13</v>
+      </c>
+      <c r="O20" s="7">
+        <v>14</v>
+      </c>
+      <c r="P20" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>16</v>
+      </c>
+      <c r="R20" s="7">
+        <v>17</v>
+      </c>
+      <c r="S20" s="7">
+        <v>18</v>
+      </c>
+      <c r="T20" s="7">
+        <v>19</v>
+      </c>
+      <c r="U20" s="7">
+        <v>20</v>
+      </c>
+      <c r="V20" s="7">
+        <v>21</v>
+      </c>
+      <c r="W20" s="7">
+        <v>22</v>
+      </c>
+      <c r="X20" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="E21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="F21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>5</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>6</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>8</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>9</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>10</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="A12:Z12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A26:Z26"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="A10:Z10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A18:Z18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
